--- a/example/template.xlsx
+++ b/example/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CHAN_LEE\Desktop\CHproject\3. NielsenIQ\SmartSurvey\PCSI\pcsiAuto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nielsenenterprise-my.sharepoint.com/personal/hyerang_lee_nielseniq_com/Documents/◈공유 드라이브◈/★IVPO (Y서버)★/Programming team/7. CATI/2023/2022 PCSI/★Form/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1318C1FA-4EA4-4677-8C8E-99020B53B681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{82D11BD5-6886-4AAF-810B-D1F734057DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F99B464-9677-4221-A62F-CA874728D0EC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="570" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="281">
   <si>
     <t>SHORT_TEXT</t>
   </si>
@@ -698,18 +698,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문 5-1】 고객님께서 &lt;font color=blue&gt;'사전에 기대하셨던 것’&lt;/font&gt;과 비교할 때, &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt; 기관의 서비스는 어떠셨습니까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문 5-2】 고객님께서 상상하실 수 있는 &lt;font color=blue&gt;‘가장 이상적인 서비스 수준’&lt;/font&gt;과 비교할 때, &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt; 기관의 서비스는 어떠셨습니까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문 5-3】 고객님께서 경험하셨던 &lt;font color=blue&gt;‘다른 기관이나 기업의 서비스’&lt;/font&gt;와 비교할 때, &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt; 기관의 서비스는 어떠셨습니까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;div align=center style='border: 1px solid #800000;padding:10px; white-space: normal; font-size:13px; border-collapse: collapse;background-color:#5579d7;color:#ffffff'&gt;_x000D_
 전반적 만족
 &lt;/div&gt;</t>
@@ -719,13 +707,6 @@
     <t>&lt;div align=center style='border: 1px solid #800000;padding:10px; white-space: normal; font-size:13px; border-collapse: collapse;background-color:#5579d7;color:#ffffff'&gt;_x000D_
 성과
 &lt;/div&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div align=center style='border: 1px solid #800000;padding:10px; white-space: normal; font-size:13px; border-collapse: collapse;background-color:#5579d7;color:#ffffff'&gt;_x000D_
-▶ 통계처리를 위한 문항 ◀
-&lt;/div&gt;
-통계처리를 위해 추가적으로 몇 가지만 더 여쭈어 보겠습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -848,9 +829,6 @@
   <si>
     <t>실례지만 어느 구, 어느 동 까지 말씀해 주시겠습니까? (거절 시 넘어가기 가능)
 &lt;#CC_1#&gt; 구 &lt;#CC_2#&gt; 동</t>
-  </si>
-  <si>
-    <t>uncheck</t>
   </si>
   <si>
     <t>(0) 기대보다 매우 나쁘다 0&lt;br/&gt;&lt;font color=red&gt;(읽어줄 것)&lt;/font&gt;
@@ -1056,12 +1034,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(1) &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;의 &lt;span id="INFO_text"&gt;&lt;/span&gt;
-(2) &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt; 직원은 고객의 요구사항을 신속하게 처리한다.
-(3) &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;의 직원의 업무처리 능력은 우수하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(1) &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;은 본래의 설립목적과 취지에 맞추어 정책을 추진하고 있다.
 (2) &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;은 국가나 사회의 미래가치 창출을 위한 업무를 수행하고 있다.
 (3) &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;의 업무수행은 공정하고 투명하게 이루어진다.</t>
@@ -1073,30 +1045,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>getVariablesValues("QQQ12", function(map){
- var QQQ12 = parseInt(map["QQQ12"]);
- var text='';
- if( QQQ12==1 ) { text='의 사업/활동으로 &lt;b&gt;국민의 삶의 질&lt;/b&gt;이 향상되었다고 생각하십니까?'; }
- if( QQQ12==2 ) { text='의 서비스를 이용하신 후, 기관의 사업/활동에 대해 &lt;b&gt;신뢰감을 갖게&lt;/b&gt;되었습니까?'; }
-$("#INFO_text").html(text);
-});</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(1) &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;&lt;span id="INFO_text_1"&gt;&lt;/span&gt;
 (2) &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;&lt;span id="INFO_text_2"&gt;&lt;/span&gt;
 (3) &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;&lt;span id="INFO_text_3"&gt;&lt;/span&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;div align=center style='border: 1px solid #800000;padding:10px; white-space: normal; font-size:13px; border-collapse: collapse;background-color:#5579d7;color:#ffffff'&gt;
-▣ 지금까지 응답해 주셔서 대단히 감사합니다. 좋은 하루 되세요. ▣&lt;/div&gt;
-(읽어주고 조사 종료) 본 조사에 대한 문의는 02-2122-7311로 연락 주시기 바랍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>▣ 지금까지 응답해 주셔서 대단히 감사합니다. 좋은 하루 되세요. ▣&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;
-(읽어주고 조사 종료) 본 조사에 대한 문의는 02-2122-7311로 연락 주시기 바랍니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1255,24 +1206,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>· 기관명 : &lt;font color=blue&gt;&lt;span id="INFO_text1"&gt;&lt;/span&gt;&lt;/font&gt;
-· 이름 : &lt;%CATI04%&gt; &lt;font color=red&gt;※ 법인고객의 경우, 이름 호명 금지합니다&lt;/font&gt;
-· 연락처 : &lt;%CATI05%&gt; / &lt;%ADD01%&gt;
-· 개/법인 : &lt;%ADD04%&gt;
-· 설문지 분류 : &lt;span id="INFO_text0"&gt;&lt;/span&gt;&lt;br/&gt;
-안녕하십니까?&lt;br/&gt;
-저는 기획재정부에서 주관하는 「공공기관 고객만족도 조사 : &lt;span id="INFO_text2"&gt;&lt;/span&gt;」을 담당한 면접원 ○○○입니다.&lt;br/&gt;&lt;br/&gt;&lt;span id="ADD06x1"&gt;&lt;%CATI04%&gt; 고객님 맞으십니까?&lt;/span&gt;&lt;span id="ADD06x2"&gt;&lt;span id="INFO_text4"&gt;&lt;/span&gt;의 &lt;span id="INFO_text5"&gt;&lt;/span&gt; 서비스를 경험하신 분을 부탁드립니다.&lt;/span&gt;&lt;br/&gt;&lt;br/&gt;본 조사는「공공기관의 운영에 관한 법률」 제13조에 의거하여 실시하고 있으며, 응답하신 내용은 통계를 내는 데만 사용될 뿐, 외부에 노출되지 않으며, 통계법에 의거, 절대 비밀이 보장됩니다. 바쁘시겠지만 공공기관의 서비스 개선을 위해 응답해 주시면 대단히 감사하겠습니다.&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;2023년 1~2월 기획재정부 공동실사단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(1) &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt; 직원 → &lt;font color=red&gt;면접중단&lt;/font&gt;
 (2) 광고회사나 시장조사 회사 → &lt;font color=red&gt;면접중단&lt;/font&gt;
 (99) 없다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DQ2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
+- 개인/법인 : &lt;%QQQ12%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+SQ1. 혹시 고객님의 가족이나 친지 중에 다음 업종에 종사하고 계신 분이 있으신지요?</t>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%QQQ12%&gt;
 - 이름/고객사명 : &lt;%CATI04%&gt;
 - 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
 SQ2. 실례지만 고객님의 ‘연세’는 만으로 어떻게 되시나요? 
@@ -1280,28 +1232,21 @@
   </si>
   <si>
     <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
+- 개인/법인 : &lt;%QQQ12%&gt;
 - 이름/고객사명 : &lt;%CATI04%&gt;
 - 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
 SQ3. &lt;span id="INFO_text"&gt;&lt;/span&gt;</t>
   </si>
   <si>
     <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
+- 개인/법인 : &lt;%QQQ12%&gt;
 - 이름/고객사명 : &lt;%CATI04%&gt;
 - 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
 SQ4. &lt;span id="INFO_text"&gt;&lt;/span&gt;</t>
   </si>
   <si>
     <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
-- 이름/고객사명 : &lt;%CATI04%&gt;
-- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
-문 1】 먼저 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;에서 제공하는 서비스의 핵심내용 등에 대해 질문 드리겠습니다.&lt;br/&gt;각 질문에 대해 고객님께서 동의하시는 정도에 따라 보기(11개) 중에서 골라주세요.&lt;br/&gt;0점(전혀 그렇지 않다) 부터 1,2,3,4,5,6,7,8,9,10점(매우 그렇다)까지 동의하시는 정도가 클수록 높은 점수, 작을수록 낮은 점수를 주시면 됩니다.</t>
-  </si>
-  <si>
-    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
+- 개인/법인 : &lt;%QQQ12%&gt;
 - 이름/고객사명 : &lt;%CATI04%&gt;
 - 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
 문 2】 다음은 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;의 서비스 제공 과정에 대한 질문입니다. 
@@ -1309,63 +1254,28 @@
   </si>
   <si>
     <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
+- 개인/법인 : &lt;%QQQ12%&gt;
 - 이름/고객사명 : &lt;%CATI04%&gt;
 - 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
 문 3】 다음은 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;의 서비스 제공 환경에 대한 질문입니다. 앞서 응답하신 방법대로 각 질문에 대해 고객님께서 동의하시는 정도에 따라 보기(11개) 중에서 골라주세요.</t>
   </si>
   <si>
     <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
+- 개인/법인 : &lt;%QQQ12%&gt;
 - 이름/고객사명 : &lt;%CATI04%&gt;
 - 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
 문 4】 다음은 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;이 공공기관으로서 수행하는 사회적 책임과 역할에 대한 질문입니다. 앞서 응답하신 방법대로 각 질문에 대해 고객님께서 동의하시는 정도에 따라 보기(11개) 중에서 골라주세요.</t>
   </si>
   <si>
     <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
-- 이름/고객사명 : &lt;%CATI04%&gt;
-- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
-※ 다음은 고객님께서 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;을 통해 경험하신 서비스의 비교평가에 대한 질문입니다. 0점(매우 나쁘다) 부터 1,2,3,4,5,6,7,8,9,10점(매우 좋다)까지 긍정적일수록 높은 점수, 부정적일수록 낮은 점수를 주시면 됩니다.</t>
-  </si>
-  <si>
-    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
-- 이름/고객사명 : &lt;%CATI04%&gt;
-- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
-※ 다음은 고객님께서 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;의 서비스 이용경험 후 느끼신 전반적인 평가에 대한 질문입니다.&lt;br/&gt;0점(전혀 그렇지 않다) 부터 1,2,3,4,5,6,7,8,9,10점(매우 그렇다)까지 동의하시는 정도가 클수록 높은 점수, 작을수록 낮은 점수를 주시면 됩니다.</t>
-  </si>
-  <si>
-    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
-- 이름/고객사명 : &lt;%CATI04%&gt;
-- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
-문 7】 고객님께서는 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt; &lt;span id="INFO_text"&gt;&lt;/span&gt;</t>
-  </si>
-  <si>
-    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
-- 이름/고객사명 : &lt;%CATI04%&gt;
-- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
-문 8】 마지막으로 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;에 바라시는 점이 있다면 자유롭게 말씀해 주십시오.</t>
-  </si>
-  <si>
-    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
-- 이름/고객사명 : &lt;%CATI04%&gt;
-- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
-DQ1. &lt;font color=red&gt;(면접원이 목소리 듣고 입력)&lt;/font&gt; 성별</t>
-  </si>
-  <si>
-    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
+- 개인/법인 : &lt;%QQQ12%&gt;
 - 이름/고객사명 : &lt;%CATI04%&gt;
 - 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
 DQ2. 고객님의 직업은 어떻게 되십니까?</t>
   </si>
   <si>
     <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
+- 개인/법인 : &lt;%QQQ12%&gt;
 - 이름/고객사명 : &lt;%CATI04%&gt;
 - 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
 DQ2. 고객님께서 속해계시는 사업체의 직원 수는 몇 명입니까?&lt;br/&gt;
@@ -1374,25 +1284,434 @@
   </si>
   <si>
     <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
+- 개인/법인 : &lt;%QQQ12%&gt;
 - 이름/고객사명 : &lt;%CATI04%&gt;
 - 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
 DQ3. 고객님께서는 공공기관 고객만족도 조사와 관련하여 최근 3개월 이내에 &lt;%TEST%&gt;으로부터 거절할 수 없을 정도로 유리한 응답을 해 달라는 요청을 받으신 경험이 있으십니까?</t>
   </si>
   <si>
     <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
-- 개인/법인 : &lt;%ADD04%&gt;
+- 개인/법인 : &lt;%QQQ12%&gt;
 - 이름/고객사명 : &lt;%CATI04%&gt;
 - 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
-SQ1. 혹시 고객님의 가족이나 친지 중에 다음 업종에 종사하고 계신 분이 있으신지요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DQ2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if(QQQ12==1) goto BB</t>
+DQ2. 고객님의 직업은 어떻게 되십니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DQ1. &lt;font color=red&gt;(면접원이 목소리 듣고 입력)&lt;/font&gt; 성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div align=center style='border: 1px solid #800000;padding:10px; white-space: normal; font-size:13px; border-collapse: collapse;background-color:#5579d7;color:#ffffff'&gt;
+▶ 통계처리를 위한 문항 ◀
+&lt;/div&gt;
+&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;&lt;br/&gt;
+- 개인/법인 : &lt;%QQQ12%&gt;&lt;br/&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;&lt;br/&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+통계처리를 위해 추가적으로 몇 가지만 더 여쭈어 보겠습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+var rateTable = $('.gratingTR');
+var selectValues = [];
+for(var i=0; i&lt;rateTable.length; i++){
+  var radios = rateTable.eq(i).find('input[type=radio]');
+  for(var r=0; r&lt;radios.length; r++){
+    if( radios.eq(r).is(':checked') ){
+      selectValues.push(r);
+    }
+  }
+}
+var minArr = [];
+var minv = '';
+if( rateTable.length == selectValues.length ){
+  var minv = Math.min.apply(null, selectValues);
+  for(var i=0; i&lt;rateTable.length; i++){
+    if( selectValues[i]==minv ){
+      minArr.push(i);
+    }
+  }
+}
+var flag = true;
+for(var i=0; i&lt;minArr.length; i++){
+  if( Number($('.autonum').find('input[type=text]').val()) == Number($('.qnum').eq(minArr[i]).html()) ){
+    flag = false;
+  }
+}
+if( !(Number($('.autonum').find('input[type=text]').val())==99) ){
+  if( Number($('.autonum').find('input[type=text]').val())&gt;=1 ){
+    if( minArr.length&gt;=1 ){
+      if(flag){
+          alert('응답 확인 부탁드립니다.');
+          return false;
+      }
+    }
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q8X2;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문 8-2】 &lt;span class='setText'&gt;그중에서 가장 불만족한 단계는 무엇입니까?&lt;/span&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length(2)
+piped(y)
+if( Q8X2==99 ) goto Q9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q8X3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length(100)
+raw(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 1년 미만
+(2) 1년 이상 ~ 3년 미만
+(3) 3년 이상 ~ 5년 미만
+(4) 5년 이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q10;
+Q10_5_ETC;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 스스로 검색 및 탐색
+(2) 기관의 안내(공문, 이메일 등)
+(3) 주위 지인들의 추천
+(4) 광고/홍보(신문광고 등)
+(5) 기타(적을 것 : (&lt;#Q10_5_ETC#&gt;) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 예
+(2) 아니오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">length(100)
+raw(4)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div align=center style='border: 1px solid #800000;padding:10px; white-space: normal; font-size:13px; border-collapse: collapse;background-color:#5579d7;color:#ffffff'&gt;
+서비스 단계별 품질 수준
+&lt;/div&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%QQQ12%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+문 8】 마지막으로 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;에 바라시는 점이 있다면 자유롭게 말씀해 주십시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%QQQ12%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+문 8】 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;에서 경험하신 서비스의 단계에 대해 고객님께서 만족하시는 정도에 따라 0점(매우 불만족), 1, 2, 3, 4, 5, 6, 7, 8, 9, 10(매우 만족)점 중에서 골라주세요.
+만족하시는 정도가 클수록 높은 점수, 작을수록 낮은 점수를 주시면 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;span class="textList" style="display:none;"&gt;&lt;/span&gt;
+&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%QQQ12%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+문 8-3】 그렇다면 위에서 가장 만족도가 낮은 &lt;font color=blue&gt;&lt;span class='Q8x2text'&gt;&lt;/span&gt; 단계&lt;/font&gt;에서 가장 불편하거나 불만스러웠던 점은 무엇이었습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%QQQ12%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+문 9】 &lt;span id="INFO_text"&gt;&lt;/span&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%QQQ12%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+문 10】 &lt;span id="INFO_text"&gt;&lt;/span&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%QQQ12%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+문 12】 &lt;span id="INFO_text"&gt;&lt;/span&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getVariablesValues("QQQ14", function(map){
+ var QQQ14 = parseInt(map["QQQ14"]);
+ var text="";
+%s
+$("#INFO_text").html(text);
+});</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%s
+(99) 모름/거절&lt;font color=red&gt;(읽어주지 말 것)&lt;/font&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q8X1_1~Q8X1_%s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%QQQ12%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+문 11】 고객님께는 전년도에 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;의 고객만족도 설문조사에 참여하셨습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%QQQ12%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+※ 다음은 고객님께서 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;을 통해 경험하신 서비스의 비교평가에 대한 질문입니다. {word}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%QQQ12%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+※ 다음은 고객님께서 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;의 서비스 이용경험 후 느끼신 전반적인 평가에 대한 질문입니다.&lt;br/&gt;{word}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문 5-1】 고객님께서 &lt;font color=blue&gt;'사전에 기대하셨던 것’&lt;/font&gt;과 비교할 때, &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;의 서비스는 어떠셨습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문 5-2】 고객님께서 상상하실 수 있는 &lt;font color=blue&gt;‘가장 이상적인 서비스 수준’&lt;/font&gt;과 비교할 때, &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;의 서비스는 어떠셨습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문 5-3】 고객님께서 경험하셨던 &lt;font color=blue&gt;‘다른 기관이나 기업의 서비스’&lt;/font&gt;와 비교할 때, &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;의 서비스는 어떠셨습니까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%QQQ12%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+문 7】 고객님께서는 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;&lt;span id="INFO_text"&gt;&lt;/span&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;의 &lt;span id="INFO_text"&gt;&lt;/span&gt;
+(2) &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt; 직원은 고객의 요구사항을 신속하게 처리한다.
+(3) &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt; 직원의 업무처리 능력은 우수하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getVariablesValues("QQQ12", function(map){
+ var QQQ12 = parseInt(map["QQQ12"]);
+ var text='';
+ if( QQQ12==1 ) { text='의 사업/활동으로 &lt;b&gt;국민의 삶의 질&lt;/b&gt;이 향상되었다고 생각하십니까?'; }
+ if( QQQ12==2 ) { text='의 서비스를 이용하신 후, 기관의 사업/활동에 대해 &lt;b&gt;신뢰감을 갖게&lt;/b&gt; 되었습니까?'; }
+$("#INFO_text").html(text);
+});</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;font color=blue&gt;[면접원 확인용]&lt;/font&gt;&lt;br/&gt;- 기관명 : &lt;%TEST%&gt;
+- 개인/법인 : &lt;%QQQ12%&gt;
+- 이름/고객사명 : &lt;%CATI04%&gt;
+- 업무유형 : &lt;%QQQ14%&gt;&lt;br/&gt;&lt;br/&gt;
+문 1】 먼저 &lt;font color=blue&gt;&lt;%TEST%&gt;&lt;/font&gt;에서 제공하는 서비스의 핵심내용 등에 대해 질문 드리겠습니다.&lt;br/&gt;{word}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncheck
+%s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ 기관명 : &lt;font color=blue&gt;&lt;span id='INFO_text1'&gt;&lt;/span&gt;&lt;/font&gt;
+○ 이름 : &lt;%CATI04%&gt; &lt;font color=red&gt;※ 법인고객의 경우, 이름 호명 금지합니다&lt;/font&gt;
+○ 연락처 : &lt;%CATI05%&gt; / &lt;%ADD01%&gt;
+○ 개/법인 : &lt;%ADD04%&gt;
+○ 설문지 분류 : &lt;span id='INFO_text0'&gt;&lt;/span&gt;&lt;br/&gt;
+안녕하십니까?&lt;br/&gt;
+저는 기획재정부에서 주관하는 「공공기관 고객만족도 조사 : &lt;span id='INFO_text2'&gt;&lt;/span&gt;」을 담당한 면접원 ○○○입니다.&lt;br/&gt;&lt;br/&gt;&lt;span id='ADD06x1'&gt;&lt;%CATI04%&gt; 고객님 맞으십니까?&lt;/span&gt;&lt;span id='ADD06x2'&gt;&lt;span id='INFO_text4'&gt;&lt;/span&gt;의 &lt;span id='INFO_text5'&gt;&lt;/span&gt; 서비스를 경험하신 분을 부탁드립니다.&lt;/span&gt;&lt;br/&gt;&lt;br/&gt;본 조사는「공공기관의 운영에 관한 법률」 제13조에 의거하여 실시하고 있으며, 응답하신 내용은 통계를 내는 데만 사용될 뿐, 외부에 노출되지 않으며, 통계법에 의거, 절대 비밀이 보장됩니다. 바쁘시겠지만 공공기관의 서비스 개선을 위해 응답해 주시면 대단히 감사하겠습니다.&lt;br/&gt;&lt;br/&gt;&lt;br/&gt;{word}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getVariablesValues("QQQ14", function(map){
+ var QQQ14 = parseInt(map["QQQ14"]);
+ var text="";
+ var rowcnt = 0;
+ var textArr = [];
+%s
+ rowcnt = textArr.length;
+ var rateTable = $('.gratingTR');
+  for(var i=0; i&lt;rateTable.length; i++){
+    if( !(i&gt;=0 &amp;&amp; i&lt;rowcnt) ){
+      rateTable.eq(i).remove();
+    }else{
+      $('.row_text').eq(i).html(textArr[i]);
+      $('.SR_row_text').eq(i).html(textArr[i]);
+    }
+ }
+});
+function changeText(){
+  var rateTable = $('.gratingTR');
+  var selectValues = [];
+  for(var i=0; i&lt;rateTable.length; i++){
+    var radios = rateTable.eq(i).find('input[type=radio]');
+    for(var r=0; r&lt;radios.length; r++){
+      if( radios.eq(r).is(':checked') ){
+        selectValues.push(r);
+      }
+    }
+  }
+  var minArr = [];
+  var minv = '';
+  if( rateTable.length == selectValues.length ){
+    var minv = Math.min.apply(null, selectValues);
+    for(var i=0; i&lt;rateTable.length; i++){
+      if( selectValues[i]==minv ){
+        minArr.push(i);
+      }
+    }
+  }
+  $("#quDiv_Q8X2").hide();
+  var srTable = $("#quDiv_Q8X2").find(".srTable");
+  var srTableTr = srTable.find('tr');
+  srTableTr.hide();
+  if( minv == 11 ){ 
+    srTableTr.eq(-1).find('input[type=radio]').attr('checked',true);
+    return
+  }
+  if(minArr.length &gt;= 1){
+    $("#quDiv_Q8X2").show();
+    for(var i=0; i&lt;minArr.length; i++){
+      srTableTr.eq(minArr[i]).show();
+    }
+    if(minArr.length &gt;= 2){
+      srTableTr.eq(-1).show();
+    }
+    if( minArr.length == 1 ){
+      srTableTr.eq(minArr[0]).find('input[type=radio]').attr('checked',true);
+    }
+  }
+}
+changeText();
+$(document).click(function(){
+  changeText();
+});
+$(document).change(function(){
+  changeText();
+});</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0) 매우불만족
+(1)
+(2)
+(3)
+(4)
+(5) 보통이다
+(6)
+(7)
+(8)
+(9)
+(10) 매우 만족
+(99) 모름/거절&lt;br/&gt;&lt;font color=red&gt;(읽어주지 말 것)&lt;/font&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q8X3_99;</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>(99) 모름/거절&lt;font color=red&gt;(읽어주지 말 것)&lt;/font&gt;</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>uncheck</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>getVariablesValues("QQQ14", function(map){
+ var QQQ14 = parseInt(map["QQQ14"]);
+ var text="";
+ var textArr = [];
+%s
+  getVariablesValues("Q8X2", function(map){
+   var Q8X2 = parseInt(map["Q8X2"]);
+   var texts = Q8X2 + '. ' + textArr[Q8X2-1] ;
+   $('.Q8x2text').html(texts);
+  });
+});
+$(document).click(function(){
+    var na = $('#var_Q8X3_99_99');
+    var oe = $('#var_Q8X3');
+    if( na.is(':checked') ){
+        oe.attr('disabled', true);
+    }else{
+        oe.attr('disabled', false);
+    }
+});</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1523,14 +1842,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -1546,8 +1857,15 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1607,6 +1925,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1675,7 +1999,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1766,9 +2090,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1838,25 +2159,25 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1907,9 +2228,58 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
@@ -2262,19 +2632,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.125" style="10" customWidth="1"/>
     <col min="2" max="2" width="10.875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="37" customWidth="1"/>
-    <col min="4" max="4" width="111.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="30.875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="167.125" style="10" customWidth="1"/>
     <col min="5" max="5" width="9.25" style="10" customWidth="1"/>
     <col min="6" max="6" width="106.375" style="10" customWidth="1"/>
     <col min="7" max="7" width="95" style="10" customWidth="1"/>
@@ -2293,7 +2663,7 @@
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2331,7 +2701,7 @@
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="40" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -2355,7 +2725,7 @@
     <row r="3" spans="1:12" s="9" customFormat="1" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="40" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="6"/>
@@ -2377,7 +2747,7 @@
       <c r="B4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="17" t="s">
@@ -2401,7 +2771,7 @@
       <c r="B5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="17" t="s">
@@ -2425,7 +2795,7 @@
       <c r="B6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="38" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="17" t="s">
@@ -2449,7 +2819,7 @@
       <c r="B7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="17" t="s">
@@ -2473,7 +2843,7 @@
       <c r="B8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>133</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -2497,7 +2867,7 @@
       <c r="B9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>125</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -2519,7 +2889,7 @@
       <c r="B10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="38" t="s">
         <v>126</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -2541,7 +2911,7 @@
       <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="38" t="s">
         <v>127</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -2563,7 +2933,7 @@
       <c r="B12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="38" t="s">
         <v>128</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -2580,77 +2950,77 @@
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="1:12" s="67" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="63" t="s">
+    <row r="13" spans="1:12" s="66" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="60"/>
+      <c r="B13" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="64"/>
+      <c r="E13" s="63"/>
       <c r="F13" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-    </row>
-    <row r="14" spans="1:12" s="67" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+    </row>
+    <row r="14" spans="1:12" s="66" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="60"/>
+      <c r="B14" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="61" t="s">
+      <c r="E14" s="63"/>
+      <c r="F14" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-    </row>
-    <row r="15" spans="1:12" s="67" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
-      <c r="B15" s="62" t="s">
+      <c r="G14" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+    </row>
+    <row r="15" spans="1:12" s="66" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="60"/>
+      <c r="B15" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="61" t="s">
+      <c r="E15" s="63"/>
+      <c r="F15" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
+      <c r="G15" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
     </row>
     <row r="16" spans="1:12" s="25" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
@@ -2659,21 +3029,21 @@
       <c r="B16" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="77" t="s">
-        <v>228</v>
+      <c r="D16" s="92" t="s">
+        <v>273</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21" t="s">
         <v>116</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="H16" s="52" t="s">
-        <v>216</v>
+        <v>218</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>207</v>
       </c>
       <c r="I16" s="23"/>
       <c r="J16" s="24"/>
@@ -2685,7 +3055,7 @@
       <c r="B17" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>70</v>
       </c>
       <c r="D17" s="22" t="s">
@@ -2694,7 +3064,7 @@
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
@@ -2707,7 +3077,7 @@
       <c r="B18" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="37" t="s">
         <v>71</v>
       </c>
       <c r="D18" s="22" t="s">
@@ -2729,7 +3099,7 @@
       <c r="B19" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="37" t="s">
         <v>72</v>
       </c>
       <c r="D19" s="22" t="s">
@@ -2751,7 +3121,7 @@
       <c r="B20" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="37" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="22" t="s">
@@ -2773,7 +3143,7 @@
       <c r="B21" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="37" t="s">
         <v>74</v>
       </c>
       <c r="D21" s="22" t="s">
@@ -2795,7 +3165,7 @@
       <c r="B22" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="37" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="22" t="s">
@@ -2812,125 +3182,125 @@
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
     </row>
-    <row r="23" spans="1:12" s="67" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="61"/>
-      <c r="B23" s="61" t="s">
+    <row r="23" spans="1:12" s="66" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="60"/>
+      <c r="B23" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61" t="s">
+      <c r="E23" s="60"/>
+      <c r="F23" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="74" t="s">
-        <v>208</v>
-      </c>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-    </row>
-    <row r="24" spans="1:12" s="67" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="61"/>
-      <c r="B24" s="61" t="s">
+      <c r="G23" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+    </row>
+    <row r="24" spans="1:12" s="66" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="60"/>
+      <c r="B24" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61" t="s">
+      <c r="E24" s="60"/>
+      <c r="F24" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-    </row>
-    <row r="25" spans="1:12" s="67" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
-      <c r="B25" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="68" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="E25" s="61"/>
+      <c r="G24" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+    </row>
+    <row r="25" spans="1:12" s="66" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="60"/>
+      <c r="B25" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="60"/>
       <c r="F25" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="G25" s="74" t="s">
-        <v>208</v>
-      </c>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-    </row>
-    <row r="26" spans="1:12" s="67" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
-      <c r="B26" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" s="73" t="s">
+        <v>199</v>
+      </c>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+    </row>
+    <row r="26" spans="1:12" s="66" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="60"/>
+      <c r="B26" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="68" t="s">
-        <v>190</v>
-      </c>
-      <c r="D26" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" s="61" t="s">
-        <v>191</v>
+      <c r="C26" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>186</v>
       </c>
       <c r="F26" s="12"/>
-      <c r="G26" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-    </row>
-    <row r="27" spans="1:12" s="67" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="61"/>
-      <c r="B27" s="61" t="s">
+      <c r="G26" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+    </row>
+    <row r="27" spans="1:12" s="66" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="60"/>
+      <c r="B27" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="60"/>
+      <c r="F27" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="D27" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="E27" s="61"/>
-      <c r="F27" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="G27" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
     </row>
     <row r="28" spans="1:12" s="25" customFormat="1" ht="310.5" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
@@ -2939,21 +3309,21 @@
       <c r="B28" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="37" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="E28" s="21"/>
-      <c r="F28" s="75" t="s">
-        <v>229</v>
+      <c r="F28" s="74" t="s">
+        <v>219</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="H28" s="46" t="s">
-        <v>210</v>
+        <v>188</v>
+      </c>
+      <c r="H28" s="45" t="s">
+        <v>201</v>
       </c>
       <c r="I28" s="23"/>
       <c r="J28" s="24"/>
@@ -2967,16 +3337,16 @@
       <c r="B29" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="37" t="s">
         <v>117</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="12" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
@@ -2991,317 +3361,317 @@
       <c r="B30" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="45" t="s">
-        <v>231</v>
+      <c r="D30" s="44" t="s">
+        <v>223</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="H30" s="52" t="s">
-        <v>212</v>
+        <v>166</v>
+      </c>
+      <c r="H30" s="51" t="s">
+        <v>203</v>
       </c>
       <c r="I30" s="23"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
     </row>
-    <row r="31" spans="1:12" s="34" customFormat="1" ht="233.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" s="33" customFormat="1" ht="233.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21" t="s">
         <v>112</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>232</v>
+      <c r="C31" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>224</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="21" t="s">
         <v>113</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="H31" s="52" t="s">
-        <v>212</v>
+        <v>167</v>
+      </c>
+      <c r="H31" s="51" t="s">
+        <v>203</v>
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="24"/>
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
     </row>
-    <row r="32" spans="1:12" s="34" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" s="33" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A32" s="21"/>
       <c r="B32" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>153</v>
+        <v>148</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>149</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="21" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="H32" s="44"/>
+        <v>183</v>
+      </c>
+      <c r="H32" s="43"/>
       <c r="I32" s="23"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
     </row>
-    <row r="33" spans="1:12" s="47" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" s="46" customFormat="1" ht="138" x14ac:dyDescent="0.3">
       <c r="A33" s="21" t="s">
         <v>83</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="45" t="s">
-        <v>209</v>
+      <c r="D33" s="44" t="s">
+        <v>200</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
-      <c r="H33" s="52" t="s">
-        <v>211</v>
+      <c r="H33" s="51" t="s">
+        <v>202</v>
       </c>
       <c r="I33" s="23"/>
       <c r="J33" s="24"/>
       <c r="K33" s="24"/>
       <c r="L33" s="24"/>
     </row>
-    <row r="34" spans="1:12" s="57" customFormat="1" ht="54" x14ac:dyDescent="0.3">
-      <c r="A34" s="54" t="s">
+    <row r="34" spans="1:12" s="56" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="56" t="s">
+      <c r="D34" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-    </row>
-    <row r="35" spans="1:12" s="57" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54" t="s">
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
+    </row>
+    <row r="35" spans="1:12" s="56" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="53"/>
+      <c r="B35" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="35" t="s">
+      <c r="C35" s="57"/>
+      <c r="D35" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="E35" s="59"/>
+      <c r="F35" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="G35" s="54" t="s">
+      <c r="G35" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="H35" s="46" t="s">
-        <v>197</v>
+      <c r="H35" s="45" t="s">
+        <v>192</v>
       </c>
       <c r="I35" s="23"/>
       <c r="J35" s="24"/>
       <c r="K35" s="24"/>
       <c r="L35" s="24"/>
     </row>
-    <row r="36" spans="1:12" s="57" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54" t="s">
+    <row r="36" spans="1:12" s="56" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="53"/>
+      <c r="B36" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="58" t="s">
+      <c r="C36" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="G36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" s="53"/>
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
     </row>
-    <row r="37" spans="1:12" s="57" customFormat="1" ht="345" x14ac:dyDescent="0.3">
-      <c r="A37" s="54" t="s">
+    <row r="37" spans="1:12" s="56" customFormat="1" ht="345" x14ac:dyDescent="0.3">
+      <c r="A37" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="35" t="s">
+      <c r="C37" s="57"/>
+      <c r="D37" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="E37" s="59"/>
+      <c r="F37" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="54" t="s">
+      <c r="G37" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="H37" s="46" t="s">
-        <v>198</v>
+      <c r="H37" s="45" t="s">
+        <v>193</v>
       </c>
       <c r="I37" s="23"/>
       <c r="J37" s="24"/>
       <c r="K37" s="24"/>
       <c r="L37" s="24"/>
     </row>
-    <row r="38" spans="1:12" s="57" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54" t="s">
+    <row r="38" spans="1:12" s="56" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="53"/>
+      <c r="B38" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="58" t="s">
+      <c r="C38" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="G38" s="54"/>
-      <c r="H38" s="46"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G38" s="53"/>
+      <c r="H38" s="45"/>
       <c r="I38" s="23"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
     </row>
-    <row r="39" spans="1:12" s="57" customFormat="1" ht="207" x14ac:dyDescent="0.3">
-      <c r="A39" s="54" t="s">
+    <row r="39" spans="1:12" s="56" customFormat="1" ht="207" x14ac:dyDescent="0.3">
+      <c r="A39" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="54" t="s">
+      <c r="B39" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="56" t="s">
-        <v>235</v>
-      </c>
-      <c r="E39" s="60"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="46" t="s">
-        <v>186</v>
+      <c r="D39" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="E39" s="59"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="45" t="s">
+        <v>181</v>
       </c>
       <c r="I39" s="23"/>
       <c r="J39" s="24"/>
       <c r="K39" s="24"/>
       <c r="L39" s="24"/>
     </row>
-    <row r="40" spans="1:12" s="57" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54" t="s">
+    <row r="40" spans="1:12" s="56" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="53"/>
+      <c r="B40" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="E40" s="60"/>
-      <c r="F40" s="35" t="s">
+      <c r="D40" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="E40" s="59"/>
+      <c r="F40" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="G40" s="54"/>
-      <c r="H40" s="46"/>
+      <c r="G40" s="53"/>
+      <c r="H40" s="45"/>
       <c r="I40" s="23"/>
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
     </row>
-    <row r="41" spans="1:12" s="57" customFormat="1" ht="189.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54" t="s">
+    <row r="41" spans="1:12" s="56" customFormat="1" ht="189.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="53"/>
+      <c r="B41" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="35" t="s">
+      <c r="C41" s="57"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="G41" s="54" t="s">
+      <c r="G41" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="H41" s="46"/>
+      <c r="H41" s="45"/>
       <c r="I41" s="23"/>
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
       <c r="L41" s="24"/>
     </row>
-    <row r="42" spans="1:12" s="57" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54" t="s">
+    <row r="42" spans="1:12" s="56" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="53"/>
+      <c r="B42" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="G42" s="54"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="G42" s="53"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
     </row>
-    <row r="43" spans="1:12" s="57" customFormat="1" ht="189.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="54" t="s">
+    <row r="43" spans="1:12" s="56" customFormat="1" ht="189.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="E43" s="60"/>
-      <c r="F43" s="35" t="s">
+      <c r="C43" s="57"/>
+      <c r="D43" s="58" t="s">
+        <v>227</v>
+      </c>
+      <c r="E43" s="59"/>
+      <c r="F43" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="G43" s="54" t="s">
+      <c r="G43" s="53" t="s">
         <v>90</v>
       </c>
       <c r="H43" s="23"/>
@@ -3310,567 +3680,809 @@
       <c r="K43" s="24"/>
       <c r="L43" s="24"/>
     </row>
-    <row r="44" spans="1:12" s="57" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54" t="s">
+    <row r="44" spans="1:12" s="56" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="53"/>
+      <c r="B44" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="G44" s="54"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="G44" s="53"/>
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
     </row>
-    <row r="45" spans="1:12" s="57" customFormat="1" ht="54" x14ac:dyDescent="0.3">
-      <c r="A45" s="54" t="s">
+    <row r="45" spans="1:12" s="56" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="56" t="s">
+      <c r="C45" s="54"/>
+      <c r="D45" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-    </row>
-    <row r="46" spans="1:12" s="57" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54" t="s">
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="53"/>
+      <c r="L45" s="53"/>
+    </row>
+    <row r="46" spans="1:12" s="56" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="53"/>
+      <c r="B46" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="56" t="s">
+      <c r="C46" s="54"/>
+      <c r="D46" s="55" t="s">
+        <v>263</v>
+      </c>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="53"/>
+      <c r="L46" s="53"/>
+    </row>
+    <row r="47" spans="1:12" s="56" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="53"/>
+      <c r="B47" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="53"/>
+      <c r="K47" s="53"/>
+      <c r="L47" s="53"/>
+    </row>
+    <row r="48" spans="1:12" s="56" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A48" s="53"/>
+      <c r="B48" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+    </row>
+    <row r="49" spans="1:12" s="56" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="53"/>
+      <c r="B49" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="53"/>
+      <c r="K49" s="53"/>
+      <c r="L49" s="53"/>
+    </row>
+    <row r="50" spans="1:12" s="56" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="54"/>
+      <c r="D50" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="53"/>
+    </row>
+    <row r="51" spans="1:12" s="56" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="53"/>
+      <c r="B51" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="54"/>
+      <c r="D51" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
+      <c r="K51" s="53"/>
+      <c r="L51" s="53"/>
+    </row>
+    <row r="52" spans="1:12" s="56" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+      <c r="A52" s="53"/>
+      <c r="B52" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="55"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+    </row>
+    <row r="53" spans="1:12" s="56" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="53"/>
+    </row>
+    <row r="54" spans="1:12" s="56" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="53"/>
+      <c r="B54" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+    </row>
+    <row r="55" spans="1:12" s="80" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="78" t="s">
+        <v>252</v>
+      </c>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="H55" s="79"/>
+      <c r="I55" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="J55" s="76"/>
+      <c r="K55" s="76"/>
+      <c r="L55" s="76"/>
+    </row>
+    <row r="56" spans="1:12" s="84" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="82"/>
+      <c r="D56" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="81"/>
+      <c r="K56" s="81"/>
+      <c r="L56" s="81"/>
+    </row>
+    <row r="57" spans="1:12" s="84" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="81"/>
+      <c r="B57" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="82"/>
+      <c r="D57" s="83" t="s">
+        <v>253</v>
+      </c>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81" t="s">
+        <v>275</v>
+      </c>
+      <c r="G57" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="H57" s="81" t="s">
+        <v>274</v>
+      </c>
+      <c r="I57" s="81" t="s">
+        <v>234</v>
+      </c>
+      <c r="J57" s="81"/>
+      <c r="K57" s="81"/>
+      <c r="L57" s="81"/>
+    </row>
+    <row r="58" spans="1:12" s="84" customFormat="1" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="81"/>
+      <c r="B58" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="82" t="s">
+        <v>261</v>
+      </c>
+      <c r="D58" s="83"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81" t="s">
+        <v>259</v>
+      </c>
+      <c r="G58" s="81"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="81"/>
+      <c r="J58" s="81"/>
+      <c r="K58" s="81"/>
+      <c r="L58" s="81"/>
+    </row>
+    <row r="59" spans="1:12" s="91" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="85"/>
+      <c r="B59" s="85" t="s">
+        <v>235</v>
+      </c>
+      <c r="C59" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" s="87" t="s">
         <v>237</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-    </row>
-    <row r="47" spans="1:12" s="57" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54" t="s">
+      <c r="E59" s="85"/>
+      <c r="F59" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="G59" s="85" t="s">
+        <v>238</v>
+      </c>
+      <c r="H59" s="88"/>
+      <c r="I59" s="89"/>
+      <c r="J59" s="90"/>
+      <c r="K59" s="90"/>
+      <c r="L59" s="90"/>
+    </row>
+    <row r="60" spans="1:12" s="91" customFormat="1" ht="379.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="B60" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="86" t="s">
+        <v>240</v>
+      </c>
+      <c r="D60" s="87" t="s">
+        <v>254</v>
+      </c>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="85" t="s">
+        <v>241</v>
+      </c>
+      <c r="H60" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="I60" s="89"/>
+      <c r="J60" s="90"/>
+      <c r="K60" s="90"/>
+      <c r="L60" s="90"/>
+    </row>
+    <row r="61" spans="1:12" s="93" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A61" s="85"/>
+      <c r="B61" s="85" t="s">
+        <v>276</v>
+      </c>
+      <c r="C61" s="86" t="s">
+        <v>277</v>
+      </c>
+      <c r="D61" s="87"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85" t="s">
+        <v>278</v>
+      </c>
+      <c r="G61" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="H61" s="88"/>
+      <c r="I61" s="89"/>
+      <c r="J61" s="89"/>
+      <c r="K61" s="89"/>
+      <c r="L61" s="89"/>
+    </row>
+    <row r="62" spans="1:12" s="91" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+      <c r="A62" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="B62" s="85" t="s">
+        <v>235</v>
+      </c>
+      <c r="C62" s="86" t="s">
+        <v>242</v>
+      </c>
+      <c r="D62" s="87" t="s">
+        <v>255</v>
+      </c>
+      <c r="E62" s="85"/>
+      <c r="F62" s="85" t="s">
+        <v>243</v>
+      </c>
+      <c r="G62" s="85"/>
+      <c r="H62" s="88" t="s">
+        <v>258</v>
+      </c>
+      <c r="I62" s="89"/>
+      <c r="J62" s="90"/>
+      <c r="K62" s="90"/>
+      <c r="L62" s="90"/>
+    </row>
+    <row r="63" spans="1:12" s="91" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+      <c r="A63" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="B63" s="85" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63" s="86" t="s">
+        <v>244</v>
+      </c>
+      <c r="D63" s="87" t="s">
+        <v>256</v>
+      </c>
+      <c r="E63" s="85"/>
+      <c r="F63" s="85" t="s">
+        <v>245</v>
+      </c>
+      <c r="G63" s="85"/>
+      <c r="H63" s="88" t="s">
+        <v>258</v>
+      </c>
+      <c r="I63" s="89"/>
+      <c r="J63" s="90"/>
+      <c r="K63" s="90"/>
+      <c r="L63" s="90"/>
+    </row>
+    <row r="64" spans="1:12" s="91" customFormat="1" ht="86.25" x14ac:dyDescent="0.3">
+      <c r="A64" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="B64" s="85" t="s">
+        <v>235</v>
+      </c>
+      <c r="C64" s="86" t="s">
+        <v>246</v>
+      </c>
+      <c r="D64" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85" t="s">
+        <v>247</v>
+      </c>
+      <c r="G64" s="85"/>
+      <c r="H64" s="88"/>
+      <c r="I64" s="89"/>
+      <c r="J64" s="90"/>
+      <c r="K64" s="90"/>
+      <c r="L64" s="90"/>
+    </row>
+    <row r="65" spans="1:12" s="91" customFormat="1" ht="213" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="81" t="s">
+        <v>248</v>
+      </c>
+      <c r="B65" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C65" s="82" t="s">
+        <v>249</v>
+      </c>
+      <c r="D65" s="83" t="s">
+        <v>257</v>
+      </c>
+      <c r="E65" s="81"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="81" t="s">
+        <v>250</v>
+      </c>
+      <c r="H65" s="88" t="s">
+        <v>258</v>
+      </c>
+      <c r="I65" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="J65" s="81"/>
+      <c r="K65" s="81"/>
+      <c r="L65" s="81"/>
+    </row>
+    <row r="66" spans="1:12" s="56" customFormat="1" ht="121.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="54"/>
+      <c r="D66" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="53"/>
+    </row>
+    <row r="67" spans="1:12" s="72" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="14"/>
+      <c r="B67" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G67" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="H67" s="75"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="75"/>
+      <c r="K67" s="75"/>
+      <c r="L67" s="75"/>
+    </row>
+    <row r="68" spans="1:12" s="72" customFormat="1" ht="241.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G68" s="71"/>
+      <c r="H68" s="75"/>
+      <c r="I68" s="75"/>
+      <c r="J68" s="75"/>
+      <c r="K68" s="75"/>
+      <c r="L68" s="75"/>
+    </row>
+    <row r="69" spans="1:12" s="72" customFormat="1" ht="241.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="G69" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="H69" s="75"/>
+      <c r="I69" s="75"/>
+      <c r="J69" s="75"/>
+      <c r="K69" s="75"/>
+      <c r="L69" s="75"/>
+    </row>
+    <row r="70" spans="1:12" s="72" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="H70" s="75"/>
+      <c r="I70" s="75"/>
+      <c r="J70" s="75"/>
+      <c r="K70" s="75"/>
+      <c r="L70" s="75"/>
+    </row>
+    <row r="71" spans="1:12" s="72" customFormat="1" ht="138" x14ac:dyDescent="0.3">
+      <c r="A71" s="14"/>
+      <c r="B71" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="G71" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="H71" s="75"/>
+      <c r="I71" s="75"/>
+      <c r="J71" s="75"/>
+      <c r="K71" s="75"/>
+      <c r="L71" s="75"/>
+    </row>
+    <row r="72" spans="1:12" s="72" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G72" s="71" t="s">
+        <v>206</v>
+      </c>
+      <c r="H72" s="75"/>
+      <c r="I72" s="75"/>
+      <c r="J72" s="75"/>
+      <c r="K72" s="75"/>
+      <c r="L72" s="75"/>
+    </row>
+    <row r="73" spans="1:12" s="56" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D73" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="G73" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="48"/>
+      <c r="K73" s="48"/>
+      <c r="L73" s="48"/>
+    </row>
+    <row r="74" spans="1:12" s="56" customFormat="1" ht="293.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-    </row>
-    <row r="48" spans="1:12" s="57" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
-    </row>
-    <row r="49" spans="1:12" s="57" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
-    </row>
-    <row r="50" spans="1:12" s="57" customFormat="1" ht="54" x14ac:dyDescent="0.3">
-      <c r="A50" s="54" t="s">
+      <c r="G74" s="49"/>
+      <c r="H74" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="I74" s="48"/>
+      <c r="J74" s="48"/>
+      <c r="K74" s="48"/>
+      <c r="L74" s="48"/>
+    </row>
+    <row r="75" spans="1:12" s="56" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="46"/>
+      <c r="B75" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D75" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="H75" s="49"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="48"/>
+      <c r="K75" s="48"/>
+      <c r="L75" s="48"/>
+    </row>
+    <row r="76" spans="1:12" ht="233.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B76" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="55"/>
-      <c r="D50" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54"/>
-    </row>
-    <row r="51" spans="1:12" s="57" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="56" t="s">
-        <v>238</v>
-      </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="G51" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-    </row>
-    <row r="52" spans="1:12" s="57" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" s="56"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
-    </row>
-    <row r="53" spans="1:12" s="57" customFormat="1" ht="54" x14ac:dyDescent="0.3">
-      <c r="A53" s="54" t="s">
+      <c r="C76" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="32"/>
+      <c r="L76" s="32"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="D53" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-    </row>
-    <row r="54" spans="1:12" s="57" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="D54" s="56" t="s">
-        <v>239</v>
-      </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="54"/>
-    </row>
-    <row r="55" spans="1:12" s="47" customFormat="1" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="C55" s="55" t="s">
-        <v>167</v>
-      </c>
-      <c r="D55" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="H55" s="21"/>
-      <c r="I55" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="54"/>
-    </row>
-    <row r="56" spans="1:12" s="57" customFormat="1" ht="81" x14ac:dyDescent="0.3">
-      <c r="A56" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" s="55"/>
-      <c r="D56" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="54"/>
-    </row>
-    <row r="57" spans="1:12" s="73" customFormat="1" ht="86.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="14"/>
-      <c r="B57" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G57" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="H57" s="76"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="76"/>
-    </row>
-    <row r="58" spans="1:12" s="73" customFormat="1" ht="241.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C58" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="G58" s="72"/>
-      <c r="H58" s="76"/>
-      <c r="I58" s="76"/>
-      <c r="J58" s="76"/>
-      <c r="K58" s="76"/>
-      <c r="L58" s="76"/>
-    </row>
-    <row r="59" spans="1:12" s="73" customFormat="1" ht="241.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C59" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="G59" s="72" t="s">
-        <v>219</v>
-      </c>
-      <c r="H59" s="76"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="76"/>
-      <c r="K59" s="76"/>
-      <c r="L59" s="76"/>
-    </row>
-    <row r="60" spans="1:12" s="73" customFormat="1" ht="207" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C60" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="72" t="s">
-        <v>222</v>
-      </c>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-    </row>
-    <row r="61" spans="1:12" s="73" customFormat="1" ht="138" x14ac:dyDescent="0.3">
-      <c r="A61" s="14"/>
-      <c r="B61" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C61" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="G61" s="72" t="s">
-        <v>226</v>
-      </c>
-      <c r="H61" s="76"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="76"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="76"/>
-    </row>
-    <row r="62" spans="1:12" s="73" customFormat="1" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C62" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="G62" s="72" t="s">
-        <v>247</v>
-      </c>
-      <c r="H62" s="76"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="76"/>
-      <c r="K62" s="76"/>
-      <c r="L62" s="76"/>
-    </row>
-    <row r="63" spans="1:12" s="57" customFormat="1" ht="51.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="D63" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="G63" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="49"/>
-    </row>
-    <row r="64" spans="1:12" s="57" customFormat="1" ht="293.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="B64" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="C64" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="D64" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="G64" s="50"/>
-      <c r="H64" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="I64" s="49"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-    </row>
-    <row r="65" spans="1:12" s="57" customFormat="1" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="47"/>
-      <c r="B65" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="C65" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="D65" s="48" t="s">
-        <v>178</v>
-      </c>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="H65" s="50"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-    </row>
-    <row r="66" spans="1:12" ht="233.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="D66" s="53" t="s">
+      <c r="B77" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D77" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-    </row>
-    <row r="67" spans="1:12" ht="24" x14ac:dyDescent="0.3">
-      <c r="A67" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B67" s="28" t="s">
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="29"/>
+      <c r="B78" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C67" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
-      <c r="G67" s="29"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="29"/>
-      <c r="B68" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="43"/>
-      <c r="D68" s="28" t="s">
+      <c r="C78" s="42"/>
+      <c r="D78" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L34" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
